--- a/Neural_Networks/template/template_test.xlsx
+++ b/Neural_Networks/template/template_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mlaskowski17\Inception_Design\Neural_Networks\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84C41C05-BB49-4EA2-BA1E-612C28653788}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{43B329ED-9306-4ED3-947A-2093607C97D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28035" windowHeight="10830" xr2:uid="{C5E79C5D-8C1C-4A75-8D63-1B9FB0BBA1DA}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>MARCIN LASKOWSKI  | BICV Lab</t>
   </si>
   <si>
-    <t>DESCRIPTION:</t>
-  </si>
-  <si>
     <t>GRAPHS</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>train final loss</t>
+  </si>
+  <si>
+    <t>DATASET:</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,6 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -286,6 +285,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -644,8 +646,8 @@
   </sheetPr>
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="28"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
@@ -712,7 +714,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="31">
         <f ca="1">TODAY()</f>
-        <v>43319</v>
+        <v>43321</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
@@ -721,13 +723,11 @@
     </row>
     <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
@@ -740,25 +740,25 @@
       <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -766,7 +766,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -783,13 +783,13 @@
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
@@ -799,21 +799,21 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="10"/>
+      <c r="H8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -823,21 +823,21 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="10"/>
+      <c r="H9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
@@ -847,21 +847,21 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="10"/>
+      <c r="H10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
@@ -871,21 +871,21 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="10"/>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
@@ -895,21 +895,21 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="10"/>
+      <c r="I12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
@@ -919,21 +919,21 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="10"/>
+      <c r="H13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
@@ -943,17 +943,17 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
@@ -963,17 +963,17 @@
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="H15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -983,17 +983,17 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="H16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
@@ -1003,21 +1003,21 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="10"/>
+      <c r="H17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
@@ -1027,21 +1027,21 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="14" t="s">
+      <c r="H18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="15"/>
+      <c r="I18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -1051,13 +1051,13 @@
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
@@ -1067,13 +1067,13 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
@@ -1268,9 +1268,9 @@
       <c r="N32" s="21"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -1510,9 +1510,9 @@
       <c r="N47" s="22"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -1798,7 +1798,7 @@
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
-      <c r="O65" s="2"/>
+      <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
@@ -1849,7 +1849,9 @@
       <c r="N68" s="22"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N69" s="1"/>
+      <c r="N69" s="18" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
